--- a/GradeDistributionsDB/Spring2016/Output/Spring2016 BA.xlsx
+++ b/GradeDistributionsDB/Spring2016/Output/Spring2016 BA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="879">
   <si>
     <t>Course</t>
   </si>
@@ -1702,6 +1702,12 @@
     <t>20.83%</t>
   </si>
   <si>
+    <t>MGMT-422</t>
+  </si>
+  <si>
+    <t>KING-METTERS K</t>
+  </si>
+  <si>
     <t>MGMT-424</t>
   </si>
   <si>
@@ -2047,6 +2053,15 @@
     <t>52.50%</t>
   </si>
   <si>
+    <t>MGMT-639</t>
+  </si>
+  <si>
+    <t>78.18%</t>
+  </si>
+  <si>
+    <t>3.64%</t>
+  </si>
+  <si>
     <t>MGMT-643</t>
   </si>
   <si>
@@ -2540,6 +2555,18 @@
   </si>
   <si>
     <t>1.28%</t>
+  </si>
+  <si>
+    <t>SCMT-361</t>
+  </si>
+  <si>
+    <t>ARREOLA-RISA A</t>
+  </si>
+  <si>
+    <t>44.23%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
   </si>
   <si>
     <t>SCMT-364</t>
@@ -2960,7 +2987,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H676"/>
+  <dimension ref="A1:H685"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7268,19 +7295,19 @@
     </row>
     <row r="406" spans="1:8">
       <c r="B406" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="C406" t="n">
-        <v>3.167</v>
+        <v>3.68</v>
       </c>
       <c r="D406" t="s">
-        <v>360</v>
+        <v>229</v>
       </c>
       <c r="E406" t="s">
-        <v>563</v>
+        <v>304</v>
       </c>
       <c r="F406" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="G406" t="s">
         <v>27</v>
@@ -7296,19 +7323,19 @@
     </row>
     <row r="409" spans="1:8">
       <c r="B409" t="s">
+        <v>537</v>
+      </c>
+      <c r="C409" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D409" t="s">
+        <v>360</v>
+      </c>
+      <c r="E409" t="s">
         <v>565</v>
       </c>
-      <c r="C409" t="n">
-        <v>3.906</v>
-      </c>
-      <c r="D409" t="s">
-        <v>566</v>
-      </c>
-      <c r="E409" t="s">
-        <v>567</v>
-      </c>
       <c r="F409" t="s">
-        <v>27</v>
+        <v>468</v>
       </c>
       <c r="G409" t="s">
         <v>27</v>
@@ -7319,24 +7346,24 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="412" spans="1:8">
       <c r="B412" t="s">
+        <v>567</v>
+      </c>
+      <c r="C412" t="n">
+        <v>3.906</v>
+      </c>
+      <c r="D412" t="s">
+        <v>568</v>
+      </c>
+      <c r="E412" t="s">
         <v>569</v>
       </c>
-      <c r="C412" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D412" t="s">
-        <v>555</v>
-      </c>
-      <c r="E412" t="s">
-        <v>87</v>
-      </c>
       <c r="F412" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="G412" t="s">
         <v>27</v>
@@ -7355,16 +7382,16 @@
         <v>571</v>
       </c>
       <c r="C415" t="n">
-        <v>3.321</v>
+        <v>3.333</v>
       </c>
       <c r="D415" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="E415" t="s">
-        <v>573</v>
+        <v>87</v>
       </c>
       <c r="F415" t="s">
-        <v>369</v>
+        <v>319</v>
       </c>
       <c r="G415" t="s">
         <v>27</v>
@@ -7375,27 +7402,27 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="418" spans="1:8">
       <c r="B418" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="C418" t="n">
-        <v>3.286</v>
+        <v>3.321</v>
       </c>
       <c r="D418" t="s">
+        <v>574</v>
+      </c>
+      <c r="E418" t="s">
         <v>575</v>
       </c>
-      <c r="E418" t="s">
-        <v>317</v>
-      </c>
       <c r="F418" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="G418" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="H418" t="s">
         <v>27</v>
@@ -7408,88 +7435,47 @@
     </row>
     <row r="421" spans="1:8">
       <c r="B421" t="s">
+        <v>515</v>
+      </c>
+      <c r="C421" t="n">
+        <v>3.286</v>
+      </c>
+      <c r="D421" t="s">
         <v>577</v>
       </c>
-      <c r="C421" t="n">
-        <v>4</v>
-      </c>
-      <c r="D421" t="s">
-        <v>68</v>
-      </c>
       <c r="E421" t="s">
-        <v>27</v>
+        <v>317</v>
       </c>
       <c r="F421" t="s">
-        <v>27</v>
+        <v>315</v>
       </c>
       <c r="G421" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="H421" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="422" spans="1:8">
-      <c r="B422" t="s">
+    <row r="423" spans="1:8">
+      <c r="A423" t="s">
         <v>578</v>
-      </c>
-      <c r="C422" t="n">
-        <v>3.864</v>
-      </c>
-      <c r="D422" t="s">
-        <v>579</v>
-      </c>
-      <c r="E422" t="s">
-        <v>323</v>
-      </c>
-      <c r="F422" t="s">
-        <v>27</v>
-      </c>
-      <c r="G422" t="s">
-        <v>27</v>
-      </c>
-      <c r="H422" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8">
-      <c r="B423" t="s">
-        <v>580</v>
-      </c>
-      <c r="C423" t="n">
-        <v>3.438</v>
-      </c>
-      <c r="D423" t="s">
-        <v>87</v>
-      </c>
-      <c r="E423" t="s">
-        <v>581</v>
-      </c>
-      <c r="F423" t="s">
-        <v>582</v>
-      </c>
-      <c r="G423" t="s">
-        <v>27</v>
-      </c>
-      <c r="H423" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="B424" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C424" t="n">
-        <v>3.478</v>
+        <v>4</v>
       </c>
       <c r="D424" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="E424" t="s">
-        <v>363</v>
+        <v>27</v>
       </c>
       <c r="F424" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="G424" t="s">
         <v>27</v>
@@ -7500,19 +7486,19 @@
     </row>
     <row r="425" spans="1:8">
       <c r="B425" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C425" t="n">
-        <v>3.625</v>
+        <v>3.864</v>
       </c>
       <c r="D425" t="s">
-        <v>153</v>
+        <v>581</v>
       </c>
       <c r="E425" t="s">
-        <v>585</v>
+        <v>323</v>
       </c>
       <c r="F425" t="s">
-        <v>586</v>
+        <v>27</v>
       </c>
       <c r="G425" t="s">
         <v>27</v>
@@ -7523,47 +7509,88 @@
     </row>
     <row r="426" spans="1:8">
       <c r="B426" t="s">
+        <v>582</v>
+      </c>
+      <c r="C426" t="n">
+        <v>3.438</v>
+      </c>
+      <c r="D426" t="s">
+        <v>87</v>
+      </c>
+      <c r="E426" t="s">
+        <v>583</v>
+      </c>
+      <c r="F426" t="s">
+        <v>584</v>
+      </c>
+      <c r="G426" t="s">
+        <v>27</v>
+      </c>
+      <c r="H426" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="B427" t="s">
+        <v>585</v>
+      </c>
+      <c r="C427" t="n">
+        <v>3.478</v>
+      </c>
+      <c r="D427" t="s">
+        <v>115</v>
+      </c>
+      <c r="E427" t="s">
+        <v>363</v>
+      </c>
+      <c r="F427" t="s">
+        <v>117</v>
+      </c>
+      <c r="G427" t="s">
+        <v>27</v>
+      </c>
+      <c r="H427" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8">
+      <c r="B428" t="s">
+        <v>586</v>
+      </c>
+      <c r="C428" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="D428" t="s">
+        <v>153</v>
+      </c>
+      <c r="E428" t="s">
         <v>587</v>
       </c>
-      <c r="C426" t="n">
-        <v>3.714</v>
-      </c>
-      <c r="D426" t="s">
+      <c r="F428" t="s">
         <v>588</v>
       </c>
-      <c r="E426" t="s">
-        <v>589</v>
-      </c>
-      <c r="F426" t="s">
-        <v>589</v>
-      </c>
-      <c r="G426" t="s">
-        <v>27</v>
-      </c>
-      <c r="H426" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8">
-      <c r="A428" t="s">
-        <v>590</v>
+      <c r="G428" t="s">
+        <v>27</v>
+      </c>
+      <c r="H428" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="429" spans="1:8">
       <c r="B429" t="s">
+        <v>589</v>
+      </c>
+      <c r="C429" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D429" t="s">
+        <v>590</v>
+      </c>
+      <c r="E429" t="s">
         <v>591</v>
       </c>
-      <c r="C429" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D429" t="s">
-        <v>87</v>
-      </c>
-      <c r="E429" t="s">
-        <v>87</v>
-      </c>
       <c r="F429" t="s">
-        <v>27</v>
+        <v>591</v>
       </c>
       <c r="G429" t="s">
         <v>27</v>
@@ -7579,53 +7606,53 @@
     </row>
     <row r="432" spans="1:8">
       <c r="B432" t="s">
+        <v>593</v>
+      </c>
+      <c r="C432" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D432" t="s">
+        <v>87</v>
+      </c>
+      <c r="E432" t="s">
+        <v>87</v>
+      </c>
+      <c r="F432" t="s">
+        <v>27</v>
+      </c>
+      <c r="G432" t="s">
+        <v>27</v>
+      </c>
+      <c r="H432" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="B435" t="s">
         <v>399</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C435" t="n">
         <v>2.9857</v>
       </c>
-      <c r="D432" t="s">
-        <v>593</v>
-      </c>
-      <c r="E432" t="s">
-        <v>594</v>
-      </c>
-      <c r="F432" t="s">
-        <v>593</v>
-      </c>
-      <c r="G432" t="s">
+      <c r="D435" t="s">
+        <v>595</v>
+      </c>
+      <c r="E435" t="s">
+        <v>596</v>
+      </c>
+      <c r="F435" t="s">
+        <v>595</v>
+      </c>
+      <c r="G435" t="s">
         <v>14</v>
       </c>
-      <c r="H432" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="433" spans="1:8">
-      <c r="B433" t="s">
-        <v>402</v>
-      </c>
-      <c r="C433" t="n">
-        <v>3.452</v>
-      </c>
-      <c r="D433" t="s">
-        <v>595</v>
-      </c>
-      <c r="E433" t="s">
-        <v>596</v>
-      </c>
-      <c r="F433" t="s">
-        <v>27</v>
-      </c>
-      <c r="G433" t="s">
-        <v>597</v>
-      </c>
-      <c r="H433" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="435" spans="1:8">
-      <c r="A435" t="s">
-        <v>598</v>
+      <c r="H435" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -7633,19 +7660,19 @@
         <v>402</v>
       </c>
       <c r="C436" t="n">
-        <v>3.4035</v>
+        <v>3.452</v>
       </c>
       <c r="D436" t="s">
+        <v>597</v>
+      </c>
+      <c r="E436" t="s">
+        <v>598</v>
+      </c>
+      <c r="F436" t="s">
+        <v>27</v>
+      </c>
+      <c r="G436" t="s">
         <v>599</v>
-      </c>
-      <c r="E436" t="s">
-        <v>599</v>
-      </c>
-      <c r="F436" t="s">
-        <v>20</v>
-      </c>
-      <c r="G436" t="s">
-        <v>27</v>
       </c>
       <c r="H436" t="s">
         <v>27</v>
@@ -7658,19 +7685,19 @@
     </row>
     <row r="439" spans="1:8">
       <c r="B439" t="s">
+        <v>402</v>
+      </c>
+      <c r="C439" t="n">
+        <v>3.4035</v>
+      </c>
+      <c r="D439" t="s">
         <v>601</v>
       </c>
-      <c r="C439" t="n">
-        <v>4</v>
-      </c>
-      <c r="D439" t="s">
-        <v>68</v>
-      </c>
       <c r="E439" t="s">
-        <v>27</v>
+        <v>601</v>
       </c>
       <c r="F439" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G439" t="s">
         <v>27</v>
@@ -7686,19 +7713,19 @@
     </row>
     <row r="442" spans="1:8">
       <c r="B442" t="s">
-        <v>404</v>
+        <v>603</v>
       </c>
       <c r="C442" t="n">
-        <v>3.095</v>
+        <v>4</v>
       </c>
       <c r="D442" t="s">
-        <v>315</v>
+        <v>68</v>
       </c>
       <c r="E442" t="s">
-        <v>588</v>
+        <v>27</v>
       </c>
       <c r="F442" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
       <c r="G442" t="s">
         <v>27</v>
@@ -7709,24 +7736,24 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="445" spans="1:8">
       <c r="B445" t="s">
-        <v>604</v>
+        <v>404</v>
       </c>
       <c r="C445" t="n">
-        <v>3.484</v>
+        <v>3.095</v>
       </c>
       <c r="D445" t="s">
-        <v>428</v>
+        <v>315</v>
       </c>
       <c r="E445" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F445" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="G445" t="s">
         <v>27</v>
@@ -7742,91 +7769,50 @@
     </row>
     <row r="448" spans="1:8">
       <c r="B448" t="s">
-        <v>571</v>
+        <v>606</v>
       </c>
       <c r="C448" t="n">
-        <v>3.317</v>
+        <v>3.484</v>
       </c>
       <c r="D448" t="s">
-        <v>606</v>
+        <v>428</v>
       </c>
       <c r="E448" t="s">
+        <v>597</v>
+      </c>
+      <c r="F448" t="s">
+        <v>27</v>
+      </c>
+      <c r="G448" t="s">
+        <v>27</v>
+      </c>
+      <c r="H448" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="A450" t="s">
         <v>607</v>
-      </c>
-      <c r="F448" t="s">
-        <v>608</v>
-      </c>
-      <c r="G448" t="s">
-        <v>609</v>
-      </c>
-      <c r="H448" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8">
-      <c r="B449" t="s">
-        <v>610</v>
-      </c>
-      <c r="C449" t="n">
-        <v>3.3815</v>
-      </c>
-      <c r="D449" t="s">
-        <v>611</v>
-      </c>
-      <c r="E449" t="s">
-        <v>611</v>
-      </c>
-      <c r="F449" t="s">
-        <v>519</v>
-      </c>
-      <c r="G449" t="s">
-        <v>27</v>
-      </c>
-      <c r="H449" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8">
-      <c r="B450" t="s">
-        <v>613</v>
-      </c>
-      <c r="C450" t="n">
-        <v>3.2105</v>
-      </c>
-      <c r="D450" t="s">
-        <v>614</v>
-      </c>
-      <c r="E450" t="s">
-        <v>615</v>
-      </c>
-      <c r="F450" t="s">
-        <v>616</v>
-      </c>
-      <c r="G450" t="s">
-        <v>27</v>
-      </c>
-      <c r="H450" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="451" spans="1:8">
       <c r="B451" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
       <c r="C451" t="n">
-        <v>3.359</v>
+        <v>3.317</v>
       </c>
       <c r="D451" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="E451" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F451" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G451" t="s">
-        <v>27</v>
+        <v>611</v>
       </c>
       <c r="H451" t="s">
         <v>27</v>
@@ -7834,42 +7820,42 @@
     </row>
     <row r="452" spans="1:8">
       <c r="B452" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C452" t="n">
-        <v>3.244</v>
+        <v>3.3815</v>
       </c>
       <c r="D452" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="E452" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F452" t="s">
-        <v>609</v>
+        <v>519</v>
       </c>
       <c r="G452" t="s">
         <v>27</v>
       </c>
       <c r="H452" t="s">
-        <v>27</v>
+        <v>614</v>
       </c>
     </row>
     <row r="453" spans="1:8">
       <c r="B453" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C453" t="n">
-        <v>3.15</v>
+        <v>3.2105</v>
       </c>
       <c r="D453" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="E453" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="F453" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
       <c r="G453" t="s">
         <v>27</v>
@@ -7880,19 +7866,19 @@
     </row>
     <row r="454" spans="1:8">
       <c r="B454" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
       <c r="C454" t="n">
-        <v>3.012</v>
+        <v>3.359</v>
       </c>
       <c r="D454" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="E454" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="F454" t="s">
-        <v>284</v>
+        <v>622</v>
       </c>
       <c r="G454" t="s">
         <v>27</v>
@@ -7903,19 +7889,19 @@
     </row>
     <row r="455" spans="1:8">
       <c r="B455" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="C455" t="n">
-        <v>3.2805</v>
+        <v>3.244</v>
       </c>
       <c r="D455" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="E455" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F455" t="s">
-        <v>375</v>
+        <v>611</v>
       </c>
       <c r="G455" t="s">
         <v>27</v>
@@ -7926,47 +7912,88 @@
     </row>
     <row r="456" spans="1:8">
       <c r="B456" t="s">
+        <v>626</v>
+      </c>
+      <c r="C456" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D456" t="s">
+        <v>627</v>
+      </c>
+      <c r="E456" t="s">
+        <v>628</v>
+      </c>
+      <c r="F456" t="s">
+        <v>629</v>
+      </c>
+      <c r="G456" t="s">
+        <v>27</v>
+      </c>
+      <c r="H456" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="B457" t="s">
+        <v>630</v>
+      </c>
+      <c r="C457" t="n">
+        <v>3.012</v>
+      </c>
+      <c r="D457" t="s">
+        <v>631</v>
+      </c>
+      <c r="E457" t="s">
+        <v>632</v>
+      </c>
+      <c r="F457" t="s">
+        <v>284</v>
+      </c>
+      <c r="G457" t="s">
+        <v>27</v>
+      </c>
+      <c r="H457" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8">
+      <c r="B458" t="s">
+        <v>633</v>
+      </c>
+      <c r="C458" t="n">
+        <v>3.2805</v>
+      </c>
+      <c r="D458" t="s">
         <v>634</v>
       </c>
-      <c r="C456" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D456" t="s">
-        <v>229</v>
-      </c>
-      <c r="E456" t="s">
-        <v>86</v>
-      </c>
-      <c r="F456" t="s">
-        <v>27</v>
-      </c>
-      <c r="G456" t="s">
-        <v>27</v>
-      </c>
-      <c r="H456" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="458" spans="1:8">
-      <c r="A458" t="s">
+      <c r="E458" t="s">
         <v>635</v>
+      </c>
+      <c r="F458" t="s">
+        <v>375</v>
+      </c>
+      <c r="G458" t="s">
+        <v>27</v>
+      </c>
+      <c r="H458" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="459" spans="1:8">
       <c r="B459" t="s">
-        <v>404</v>
+        <v>636</v>
       </c>
       <c r="C459" t="n">
-        <v>2.974</v>
+        <v>3.8</v>
       </c>
       <c r="D459" t="s">
-        <v>636</v>
+        <v>229</v>
       </c>
       <c r="E459" t="s">
-        <v>637</v>
+        <v>86</v>
       </c>
       <c r="F459" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G459" t="s">
         <v>27</v>
@@ -7977,24 +8004,24 @@
     </row>
     <row r="461" spans="1:8">
       <c r="A461" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="462" spans="1:8">
       <c r="B462" t="s">
+        <v>404</v>
+      </c>
+      <c r="C462" t="n">
+        <v>2.974</v>
+      </c>
+      <c r="D462" t="s">
+        <v>638</v>
+      </c>
+      <c r="E462" t="s">
         <v>639</v>
       </c>
-      <c r="C462" t="n">
-        <v>3.971</v>
-      </c>
-      <c r="D462" t="s">
-        <v>174</v>
-      </c>
-      <c r="E462" t="s">
-        <v>175</v>
-      </c>
       <c r="F462" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G462" t="s">
         <v>27</v>
@@ -8010,16 +8037,16 @@
     </row>
     <row r="465" spans="1:8">
       <c r="B465" t="s">
-        <v>404</v>
+        <v>641</v>
       </c>
       <c r="C465" t="n">
-        <v>3.778</v>
+        <v>3.971</v>
       </c>
       <c r="D465" t="s">
-        <v>641</v>
+        <v>174</v>
       </c>
       <c r="E465" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="F465" t="s">
         <v>27</v>
@@ -8038,16 +8065,16 @@
     </row>
     <row r="468" spans="1:8">
       <c r="B468" t="s">
+        <v>404</v>
+      </c>
+      <c r="C468" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D468" t="s">
         <v>643</v>
       </c>
-      <c r="C468" t="n">
-        <v>3.704</v>
-      </c>
-      <c r="D468" t="s">
-        <v>644</v>
-      </c>
       <c r="E468" t="s">
-        <v>645</v>
+        <v>119</v>
       </c>
       <c r="F468" t="s">
         <v>27</v>
@@ -8061,21 +8088,21 @@
     </row>
     <row r="470" spans="1:8">
       <c r="A470" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="471" spans="1:8">
       <c r="B471" t="s">
-        <v>202</v>
+        <v>645</v>
       </c>
       <c r="C471" t="n">
-        <v>3.542</v>
+        <v>3.704</v>
       </c>
       <c r="D471" t="s">
-        <v>552</v>
+        <v>646</v>
       </c>
       <c r="E471" t="s">
-        <v>560</v>
+        <v>647</v>
       </c>
       <c r="F471" t="s">
         <v>27</v>
@@ -8089,24 +8116,24 @@
     </row>
     <row r="473" spans="1:8">
       <c r="A473" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="474" spans="1:8">
       <c r="B474" t="s">
-        <v>648</v>
+        <v>202</v>
       </c>
       <c r="C474" t="n">
-        <v>3.3835</v>
+        <v>3.542</v>
       </c>
       <c r="D474" t="s">
-        <v>649</v>
+        <v>552</v>
       </c>
       <c r="E474" t="s">
-        <v>650</v>
+        <v>560</v>
       </c>
       <c r="F474" t="s">
-        <v>597</v>
+        <v>27</v>
       </c>
       <c r="G474" t="s">
         <v>27</v>
@@ -8117,75 +8144,75 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="477" spans="1:8">
       <c r="B477" t="s">
+        <v>650</v>
+      </c>
+      <c r="C477" t="n">
+        <v>3.3835</v>
+      </c>
+      <c r="D477" t="s">
+        <v>651</v>
+      </c>
+      <c r="E477" t="s">
         <v>652</v>
       </c>
-      <c r="C477" t="n">
+      <c r="F477" t="s">
+        <v>599</v>
+      </c>
+      <c r="G477" t="s">
+        <v>27</v>
+      </c>
+      <c r="H477" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
+      <c r="A479" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8">
+      <c r="B480" t="s">
+        <v>654</v>
+      </c>
+      <c r="C480" t="n">
         <v>3.3285</v>
       </c>
-      <c r="D477" t="s">
+      <c r="D480" t="s">
         <v>195</v>
       </c>
-      <c r="E477" t="s">
+      <c r="E480" t="s">
         <v>153</v>
       </c>
-      <c r="F477" t="s">
-        <v>27</v>
-      </c>
-      <c r="G477" t="s">
-        <v>27</v>
-      </c>
-      <c r="H477" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="478" spans="1:8">
-      <c r="B478" t="s">
-        <v>653</v>
-      </c>
-      <c r="C478" t="n">
-        <v>3.783</v>
-      </c>
-      <c r="D478" t="s">
-        <v>654</v>
-      </c>
-      <c r="E478" t="s">
-        <v>655</v>
-      </c>
-      <c r="F478" t="s">
-        <v>27</v>
-      </c>
-      <c r="G478" t="s">
-        <v>27</v>
-      </c>
-      <c r="H478" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8">
-      <c r="A480" t="s">
-        <v>656</v>
+      <c r="F480" t="s">
+        <v>27</v>
+      </c>
+      <c r="G480" t="s">
+        <v>27</v>
+      </c>
+      <c r="H480" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="481" spans="1:8">
       <c r="B481" t="s">
+        <v>655</v>
+      </c>
+      <c r="C481" t="n">
+        <v>3.783</v>
+      </c>
+      <c r="D481" t="s">
+        <v>656</v>
+      </c>
+      <c r="E481" t="s">
         <v>657</v>
       </c>
-      <c r="C481" t="n">
-        <v>3.433</v>
-      </c>
-      <c r="D481" t="s">
-        <v>87</v>
-      </c>
-      <c r="E481" t="s">
-        <v>658</v>
-      </c>
       <c r="F481" t="s">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="G481" t="s">
         <v>27</v>
@@ -8196,24 +8223,24 @@
     </row>
     <row r="483" spans="1:8">
       <c r="A483" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="484" spans="1:8">
       <c r="B484" t="s">
+        <v>659</v>
+      </c>
+      <c r="C484" t="n">
+        <v>3.433</v>
+      </c>
+      <c r="D484" t="s">
+        <v>87</v>
+      </c>
+      <c r="E484" t="s">
         <v>660</v>
       </c>
-      <c r="C484" t="n">
-        <v>3.667</v>
-      </c>
-      <c r="D484" t="s">
-        <v>153</v>
-      </c>
-      <c r="E484" t="s">
-        <v>195</v>
-      </c>
       <c r="F484" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="G484" t="s">
         <v>27</v>
@@ -8232,13 +8259,13 @@
         <v>662</v>
       </c>
       <c r="C487" t="n">
-        <v>3.529</v>
+        <v>3.667</v>
       </c>
       <c r="D487" t="s">
-        <v>663</v>
+        <v>153</v>
       </c>
       <c r="E487" t="s">
-        <v>599</v>
+        <v>195</v>
       </c>
       <c r="F487" t="s">
         <v>27</v>
@@ -8252,24 +8279,24 @@
     </row>
     <row r="489" spans="1:8">
       <c r="A489" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="490" spans="1:8">
       <c r="B490" t="s">
+        <v>664</v>
+      </c>
+      <c r="C490" t="n">
+        <v>3.529</v>
+      </c>
+      <c r="D490" t="s">
         <v>665</v>
       </c>
-      <c r="C490" t="n">
-        <v>3.517</v>
-      </c>
-      <c r="D490" t="s">
-        <v>666</v>
-      </c>
       <c r="E490" t="s">
-        <v>667</v>
+        <v>601</v>
       </c>
       <c r="F490" t="s">
-        <v>126</v>
+        <v>27</v>
       </c>
       <c r="G490" t="s">
         <v>27</v>
@@ -8280,30 +8307,30 @@
     </row>
     <row r="492" spans="1:8">
       <c r="A492" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="493" spans="1:8">
       <c r="B493" t="s">
+        <v>667</v>
+      </c>
+      <c r="C493" t="n">
+        <v>3.517</v>
+      </c>
+      <c r="D493" t="s">
+        <v>668</v>
+      </c>
+      <c r="E493" t="s">
         <v>669</v>
       </c>
-      <c r="C493" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="D493" t="s">
-        <v>86</v>
-      </c>
-      <c r="E493" t="s">
-        <v>400</v>
-      </c>
       <c r="F493" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="G493" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="H493" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -8316,41 +8343,41 @@
         <v>671</v>
       </c>
       <c r="C496" t="n">
-        <v>3.381</v>
+        <v>2.2</v>
       </c>
       <c r="D496" t="s">
-        <v>672</v>
+        <v>86</v>
       </c>
       <c r="E496" t="s">
-        <v>673</v>
+        <v>400</v>
       </c>
       <c r="F496" t="s">
         <v>27</v>
       </c>
       <c r="G496" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="H496" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="498" spans="1:8">
       <c r="A498" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="499" spans="1:8">
       <c r="B499" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C499" t="n">
-        <v>3.475</v>
+        <v>3.381</v>
       </c>
       <c r="D499" t="s">
+        <v>674</v>
+      </c>
+      <c r="E499" t="s">
         <v>675</v>
-      </c>
-      <c r="E499" t="s">
-        <v>676</v>
       </c>
       <c r="F499" t="s">
         <v>27</v>
@@ -8364,24 +8391,24 @@
     </row>
     <row r="501" spans="1:8">
       <c r="A501" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="502" spans="1:8">
       <c r="B502" t="s">
-        <v>384</v>
+        <v>673</v>
       </c>
       <c r="C502" t="n">
-        <v>3.373</v>
+        <v>3.475</v>
       </c>
       <c r="D502" t="s">
+        <v>677</v>
+      </c>
+      <c r="E502" t="s">
         <v>678</v>
       </c>
-      <c r="E502" t="s">
-        <v>679</v>
-      </c>
       <c r="F502" t="s">
-        <v>680</v>
+        <v>27</v>
       </c>
       <c r="G502" t="s">
         <v>27</v>
@@ -8392,24 +8419,24 @@
     </row>
     <row r="504" spans="1:8">
       <c r="A504" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="505" spans="1:8">
       <c r="B505" t="s">
-        <v>682</v>
+        <v>563</v>
       </c>
       <c r="C505" t="n">
-        <v>3.68</v>
+        <v>3.7475</v>
       </c>
       <c r="D505" t="s">
-        <v>494</v>
+        <v>680</v>
       </c>
       <c r="E505" t="s">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="F505" t="s">
-        <v>27</v>
+        <v>681</v>
       </c>
       <c r="G505" t="s">
         <v>27</v>
@@ -8420,24 +8447,24 @@
     </row>
     <row r="507" spans="1:8">
       <c r="A507" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="508" spans="1:8">
       <c r="B508" t="s">
-        <v>604</v>
+        <v>384</v>
       </c>
       <c r="C508" t="n">
-        <v>3.576</v>
+        <v>3.373</v>
       </c>
       <c r="D508" t="s">
+        <v>683</v>
+      </c>
+      <c r="E508" t="s">
         <v>684</v>
       </c>
-      <c r="E508" t="s">
+      <c r="F508" t="s">
         <v>685</v>
-      </c>
-      <c r="F508" t="s">
-        <v>27</v>
       </c>
       <c r="G508" t="s">
         <v>27</v>
@@ -8453,19 +8480,19 @@
     </row>
     <row r="511" spans="1:8">
       <c r="B511" t="s">
-        <v>591</v>
+        <v>687</v>
       </c>
       <c r="C511" t="n">
-        <v>3.5625</v>
+        <v>3.68</v>
       </c>
       <c r="D511" t="s">
-        <v>687</v>
+        <v>494</v>
       </c>
       <c r="E511" t="s">
-        <v>688</v>
+        <v>82</v>
       </c>
       <c r="F511" t="s">
-        <v>361</v>
+        <v>27</v>
       </c>
       <c r="G511" t="s">
         <v>27</v>
@@ -8476,24 +8503,24 @@
     </row>
     <row r="513" spans="1:8">
       <c r="A513" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="514" spans="1:8">
       <c r="B514" t="s">
-        <v>628</v>
+        <v>606</v>
       </c>
       <c r="C514" t="n">
-        <v>3.482</v>
+        <v>3.576</v>
       </c>
       <c r="D514" t="s">
-        <v>120</v>
+        <v>689</v>
       </c>
       <c r="E514" t="s">
-        <v>162</v>
+        <v>690</v>
       </c>
       <c r="F514" t="s">
-        <v>287</v>
+        <v>27</v>
       </c>
       <c r="G514" t="s">
         <v>27</v>
@@ -8504,151 +8531,151 @@
     </row>
     <row r="516" spans="1:8">
       <c r="A516" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="517" spans="1:8">
       <c r="B517" t="s">
-        <v>691</v>
+        <v>593</v>
       </c>
       <c r="C517" t="n">
-        <v>2.571</v>
+        <v>3.5625</v>
       </c>
       <c r="D517" t="s">
-        <v>315</v>
+        <v>692</v>
       </c>
       <c r="E517" t="s">
-        <v>316</v>
+        <v>693</v>
       </c>
       <c r="F517" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="G517" t="s">
         <v>27</v>
       </c>
       <c r="H517" t="s">
-        <v>315</v>
+        <v>27</v>
       </c>
     </row>
     <row r="519" spans="1:8">
       <c r="A519" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="520" spans="1:8">
       <c r="B520" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="C520" t="n">
+        <v>3.482</v>
+      </c>
+      <c r="D520" t="s">
+        <v>120</v>
+      </c>
+      <c r="E520" t="s">
+        <v>162</v>
+      </c>
+      <c r="F520" t="s">
+        <v>287</v>
+      </c>
+      <c r="G520" t="s">
+        <v>27</v>
+      </c>
+      <c r="H520" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="A522" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="B523" t="s">
+        <v>696</v>
+      </c>
+      <c r="C523" t="n">
+        <v>2.571</v>
+      </c>
+      <c r="D523" t="s">
+        <v>315</v>
+      </c>
+      <c r="E523" t="s">
+        <v>316</v>
+      </c>
+      <c r="F523" t="s">
+        <v>315</v>
+      </c>
+      <c r="G523" t="s">
+        <v>27</v>
+      </c>
+      <c r="H523" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8">
+      <c r="A525" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="B526" t="s">
+        <v>650</v>
+      </c>
+      <c r="C526" t="n">
         <v>3.68</v>
       </c>
-      <c r="D520" t="s">
+      <c r="D526" t="s">
         <v>494</v>
       </c>
-      <c r="E520" t="s">
+      <c r="E526" t="s">
         <v>82</v>
       </c>
-      <c r="F520" t="s">
-        <v>27</v>
-      </c>
-      <c r="G520" t="s">
-        <v>27</v>
-      </c>
-      <c r="H520" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="521" spans="1:8">
-      <c r="B521" t="s">
-        <v>693</v>
-      </c>
-      <c r="C521" t="n">
+      <c r="F526" t="s">
+        <v>27</v>
+      </c>
+      <c r="G526" t="s">
+        <v>27</v>
+      </c>
+      <c r="H526" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8">
+      <c r="B527" t="s">
+        <v>698</v>
+      </c>
+      <c r="C527" t="n">
         <v>3.63</v>
       </c>
-      <c r="D521" t="s">
+      <c r="D527" t="s">
         <v>153</v>
       </c>
-      <c r="E521" t="s">
-        <v>645</v>
-      </c>
-      <c r="F521" t="s">
+      <c r="E527" t="s">
+        <v>647</v>
+      </c>
+      <c r="F527" t="s">
         <v>287</v>
       </c>
-      <c r="G521" t="s">
-        <v>27</v>
-      </c>
-      <c r="H521" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8">
-      <c r="B522" t="s">
-        <v>639</v>
-      </c>
-      <c r="C522" t="n">
-        <v>4</v>
-      </c>
-      <c r="D522" t="s">
-        <v>68</v>
-      </c>
-      <c r="E522" t="s">
-        <v>27</v>
-      </c>
-      <c r="F522" t="s">
-        <v>27</v>
-      </c>
-      <c r="G522" t="s">
-        <v>27</v>
-      </c>
-      <c r="H522" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8">
-      <c r="A524" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="525" spans="1:8">
-      <c r="B525" t="s">
-        <v>634</v>
-      </c>
-      <c r="C525" t="n">
-        <v>3.786</v>
-      </c>
-      <c r="D525" t="s">
-        <v>695</v>
-      </c>
-      <c r="E525" t="s">
-        <v>696</v>
-      </c>
-      <c r="F525" t="s">
-        <v>27</v>
-      </c>
-      <c r="G525" t="s">
-        <v>27</v>
-      </c>
-      <c r="H525" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="527" spans="1:8">
-      <c r="A527" t="s">
-        <v>697</v>
+      <c r="G527" t="s">
+        <v>27</v>
+      </c>
+      <c r="H527" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="528" spans="1:8">
       <c r="B528" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="C528" t="n">
-        <v>3.3787</v>
+        <v>4</v>
       </c>
       <c r="D528" t="s">
-        <v>698</v>
+        <v>68</v>
       </c>
       <c r="E528" t="s">
-        <v>699</v>
+        <v>27</v>
       </c>
       <c r="F528" t="s">
         <v>27</v>
@@ -8662,208 +8689,208 @@
     </row>
     <row r="530" spans="1:8">
       <c r="A530" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="531" spans="1:8">
       <c r="B531" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="C531" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="D531" t="s">
+        <v>700</v>
+      </c>
+      <c r="E531" t="s">
+        <v>701</v>
+      </c>
+      <c r="F531" t="s">
+        <v>27</v>
+      </c>
+      <c r="G531" t="s">
+        <v>27</v>
+      </c>
+      <c r="H531" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8">
+      <c r="A533" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8">
+      <c r="B534" t="s">
+        <v>636</v>
+      </c>
+      <c r="C534" t="n">
+        <v>3.3787</v>
+      </c>
+      <c r="D534" t="s">
+        <v>703</v>
+      </c>
+      <c r="E534" t="s">
+        <v>704</v>
+      </c>
+      <c r="F534" t="s">
+        <v>27</v>
+      </c>
+      <c r="G534" t="s">
+        <v>27</v>
+      </c>
+      <c r="H534" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="B537" t="s">
+        <v>655</v>
+      </c>
+      <c r="C537" t="n">
         <v>3.833</v>
       </c>
-      <c r="D531" t="s">
+      <c r="D537" t="s">
         <v>367</v>
       </c>
-      <c r="E531" t="s">
+      <c r="E537" t="s">
         <v>196</v>
       </c>
-      <c r="F531" t="s">
-        <v>27</v>
-      </c>
-      <c r="G531" t="s">
-        <v>27</v>
-      </c>
-      <c r="H531" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8">
-      <c r="B532" t="s">
+      <c r="F537" t="s">
+        <v>27</v>
+      </c>
+      <c r="G537" t="s">
+        <v>27</v>
+      </c>
+      <c r="H537" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="B538" t="s">
         <v>70</v>
       </c>
-      <c r="C532" t="n">
+      <c r="C538" t="n">
         <v>3.903</v>
       </c>
-      <c r="D532" t="s">
-        <v>701</v>
-      </c>
-      <c r="E532" t="s">
-        <v>702</v>
-      </c>
-      <c r="F532" t="s">
-        <v>27</v>
-      </c>
-      <c r="G532" t="s">
-        <v>27</v>
-      </c>
-      <c r="H532" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8">
-      <c r="A534" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8">
-      <c r="B535" t="s">
-        <v>704</v>
-      </c>
-      <c r="C535" t="n">
+      <c r="D538" t="s">
+        <v>706</v>
+      </c>
+      <c r="E538" t="s">
+        <v>707</v>
+      </c>
+      <c r="F538" t="s">
+        <v>27</v>
+      </c>
+      <c r="G538" t="s">
+        <v>27</v>
+      </c>
+      <c r="H538" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="B541" t="s">
+        <v>709</v>
+      </c>
+      <c r="C541" t="n">
         <v>3.5057</v>
       </c>
-      <c r="D535" t="s">
-        <v>705</v>
-      </c>
-      <c r="E535" t="s">
-        <v>706</v>
-      </c>
-      <c r="F535" t="s">
-        <v>707</v>
-      </c>
-      <c r="G535" t="s">
-        <v>708</v>
-      </c>
-      <c r="H535" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8">
-      <c r="B536" t="s">
+      <c r="D541" t="s">
         <v>710</v>
       </c>
-      <c r="C536" t="n">
+      <c r="E541" t="s">
+        <v>711</v>
+      </c>
+      <c r="F541" t="s">
+        <v>712</v>
+      </c>
+      <c r="G541" t="s">
+        <v>713</v>
+      </c>
+      <c r="H541" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="B542" t="s">
+        <v>715</v>
+      </c>
+      <c r="C542" t="n">
         <v>3.8935</v>
       </c>
-      <c r="D536" t="s">
-        <v>711</v>
-      </c>
-      <c r="E536" t="s">
-        <v>712</v>
-      </c>
-      <c r="F536" t="s">
-        <v>27</v>
-      </c>
-      <c r="G536" t="s">
-        <v>27</v>
-      </c>
-      <c r="H536" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8">
-      <c r="A538" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8">
-      <c r="B539" t="s">
-        <v>714</v>
-      </c>
-      <c r="C539" t="n">
+      <c r="D542" t="s">
+        <v>716</v>
+      </c>
+      <c r="E542" t="s">
+        <v>717</v>
+      </c>
+      <c r="F542" t="s">
+        <v>27</v>
+      </c>
+      <c r="G542" t="s">
+        <v>27</v>
+      </c>
+      <c r="H542" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="B545" t="s">
+        <v>719</v>
+      </c>
+      <c r="C545" t="n">
         <v>3.1257</v>
       </c>
-      <c r="D539" t="s">
-        <v>715</v>
-      </c>
-      <c r="E539" t="s">
-        <v>716</v>
-      </c>
-      <c r="F539" t="s">
-        <v>717</v>
-      </c>
-      <c r="G539" t="s">
-        <v>718</v>
-      </c>
-      <c r="H539" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8">
-      <c r="B540" t="s">
-        <v>719</v>
-      </c>
-      <c r="C540" t="n">
-        <v>3.1447</v>
-      </c>
-      <c r="D540" t="s">
+      <c r="D545" t="s">
         <v>720</v>
       </c>
-      <c r="E540" t="s">
+      <c r="E545" t="s">
         <v>721</v>
       </c>
-      <c r="F540" t="s">
+      <c r="F545" t="s">
         <v>722</v>
       </c>
-      <c r="G540" t="s">
-        <v>27</v>
-      </c>
-      <c r="H540" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8">
-      <c r="A542" t="s">
+      <c r="G545" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="543" spans="1:8">
-      <c r="B543" t="s">
-        <v>724</v>
-      </c>
-      <c r="C543" t="n">
-        <v>3.7167</v>
-      </c>
-      <c r="D543" t="s">
-        <v>725</v>
-      </c>
-      <c r="E543" t="s">
-        <v>726</v>
-      </c>
-      <c r="F543" t="s">
-        <v>14</v>
-      </c>
-      <c r="G543" t="s">
-        <v>14</v>
-      </c>
-      <c r="H543" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
-      <c r="A545" t="s">
-        <v>727</v>
+      <c r="H545" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="546" spans="1:8">
       <c r="B546" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C546" t="n">
-        <v>3.0763</v>
+        <v>3.1447</v>
       </c>
       <c r="D546" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E546" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="F546" t="s">
-        <v>58</v>
+        <v>727</v>
       </c>
       <c r="G546" t="s">
-        <v>451</v>
+        <v>27</v>
       </c>
       <c r="H546" t="s">
         <v>27</v>
@@ -8871,27 +8898,27 @@
     </row>
     <row r="548" spans="1:8">
       <c r="A548" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="549" spans="1:8">
       <c r="B549" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C549" t="n">
-        <v>3.1945</v>
+        <v>3.7167</v>
       </c>
       <c r="D549" t="s">
-        <v>360</v>
+        <v>730</v>
       </c>
       <c r="E549" t="s">
-        <v>705</v>
+        <v>731</v>
       </c>
       <c r="F549" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="G549" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H549" t="s">
         <v>27</v>
@@ -8899,27 +8926,27 @@
     </row>
     <row r="551" spans="1:8">
       <c r="A551" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="552" spans="1:8">
       <c r="B552" t="s">
+        <v>733</v>
+      </c>
+      <c r="C552" t="n">
+        <v>3.0763</v>
+      </c>
+      <c r="D552" t="s">
         <v>734</v>
       </c>
-      <c r="C552" t="n">
-        <v>3.403</v>
-      </c>
-      <c r="D552" t="s">
+      <c r="E552" t="s">
         <v>735</v>
       </c>
-      <c r="E552" t="s">
-        <v>552</v>
-      </c>
       <c r="F552" t="s">
-        <v>736</v>
+        <v>58</v>
       </c>
       <c r="G552" t="s">
-        <v>27</v>
+        <v>451</v>
       </c>
       <c r="H552" t="s">
         <v>27</v>
@@ -8927,109 +8954,109 @@
     </row>
     <row r="554" spans="1:8">
       <c r="A554" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="555" spans="1:8">
       <c r="B555" t="s">
+        <v>737</v>
+      </c>
+      <c r="C555" t="n">
+        <v>3.1945</v>
+      </c>
+      <c r="D555" t="s">
+        <v>360</v>
+      </c>
+      <c r="E555" t="s">
+        <v>710</v>
+      </c>
+      <c r="F555" t="s">
+        <v>88</v>
+      </c>
+      <c r="G555" t="s">
+        <v>27</v>
+      </c>
+      <c r="H555" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" t="s">
         <v>738</v>
       </c>
-      <c r="C555" t="n">
+    </row>
+    <row r="558" spans="1:8">
+      <c r="B558" t="s">
+        <v>739</v>
+      </c>
+      <c r="C558" t="n">
+        <v>3.403</v>
+      </c>
+      <c r="D558" t="s">
+        <v>740</v>
+      </c>
+      <c r="E558" t="s">
+        <v>552</v>
+      </c>
+      <c r="F558" t="s">
+        <v>741</v>
+      </c>
+      <c r="G558" t="s">
+        <v>27</v>
+      </c>
+      <c r="H558" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="B561" t="s">
+        <v>743</v>
+      </c>
+      <c r="C561" t="n">
         <v>3.737</v>
       </c>
-      <c r="D555" t="s">
-        <v>739</v>
-      </c>
-      <c r="E555" t="s">
+      <c r="D561" t="s">
+        <v>744</v>
+      </c>
+      <c r="E561" t="s">
         <v>31</v>
       </c>
-      <c r="F555" t="s">
-        <v>27</v>
-      </c>
-      <c r="G555" t="s">
-        <v>27</v>
-      </c>
-      <c r="H555" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="556" spans="1:8">
-      <c r="B556" t="s">
-        <v>740</v>
-      </c>
-      <c r="C556" t="n">
-        <v>3.6267</v>
-      </c>
-      <c r="D556" t="s">
-        <v>741</v>
-      </c>
-      <c r="E556" t="s">
-        <v>742</v>
-      </c>
-      <c r="F556" t="s">
-        <v>743</v>
-      </c>
-      <c r="G556" t="s">
-        <v>27</v>
-      </c>
-      <c r="H556" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8">
-      <c r="A558" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="559" spans="1:8">
-      <c r="B559" t="s">
-        <v>396</v>
-      </c>
-      <c r="C559" t="n">
-        <v>3.506</v>
-      </c>
-      <c r="D559" t="s">
-        <v>745</v>
-      </c>
-      <c r="E559" t="s">
-        <v>746</v>
-      </c>
-      <c r="F559" t="s">
-        <v>77</v>
-      </c>
-      <c r="G559" t="s">
-        <v>27</v>
-      </c>
-      <c r="H559" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="561" spans="1:8">
-      <c r="A561" t="s">
-        <v>747</v>
+      <c r="F561" t="s">
+        <v>27</v>
+      </c>
+      <c r="G561" t="s">
+        <v>27</v>
+      </c>
+      <c r="H561" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="562" spans="1:8">
       <c r="B562" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="C562" t="n">
-        <v>3.454</v>
+        <v>3.6267</v>
       </c>
       <c r="D562" t="s">
+        <v>746</v>
+      </c>
+      <c r="E562" t="s">
+        <v>747</v>
+      </c>
+      <c r="F562" t="s">
         <v>748</v>
       </c>
-      <c r="E562" t="s">
-        <v>312</v>
-      </c>
-      <c r="F562" t="s">
-        <v>52</v>
-      </c>
       <c r="G562" t="s">
         <v>27</v>
       </c>
       <c r="H562" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -9039,126 +9066,126 @@
     </row>
     <row r="565" spans="1:8">
       <c r="B565" t="s">
+        <v>396</v>
+      </c>
+      <c r="C565" t="n">
+        <v>3.506</v>
+      </c>
+      <c r="D565" t="s">
         <v>750</v>
       </c>
-      <c r="C565" t="n">
+      <c r="E565" t="s">
+        <v>751</v>
+      </c>
+      <c r="F565" t="s">
+        <v>77</v>
+      </c>
+      <c r="G565" t="s">
+        <v>27</v>
+      </c>
+      <c r="H565" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="B568" t="s">
+        <v>729</v>
+      </c>
+      <c r="C568" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="D568" t="s">
+        <v>753</v>
+      </c>
+      <c r="E568" t="s">
+        <v>312</v>
+      </c>
+      <c r="F568" t="s">
+        <v>52</v>
+      </c>
+      <c r="G568" t="s">
+        <v>27</v>
+      </c>
+      <c r="H568" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8">
+      <c r="A570" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8">
+      <c r="B571" t="s">
+        <v>755</v>
+      </c>
+      <c r="C571" t="n">
         <v>2.9565</v>
       </c>
-      <c r="D565" t="s">
-        <v>751</v>
-      </c>
-      <c r="E565" t="s">
-        <v>752</v>
-      </c>
-      <c r="F565" t="s">
-        <v>753</v>
-      </c>
-      <c r="G565" t="s">
-        <v>754</v>
-      </c>
-      <c r="H565" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="566" spans="1:8">
-      <c r="B566" t="s">
+      <c r="D571" t="s">
         <v>756</v>
       </c>
-      <c r="C566" t="n">
-        <v>3.2515</v>
-      </c>
-      <c r="D566" t="s">
+      <c r="E571" t="s">
         <v>757</v>
       </c>
-      <c r="E566" t="s">
+      <c r="F571" t="s">
         <v>758</v>
       </c>
-      <c r="F566" t="s">
+      <c r="G571" t="s">
         <v>759</v>
       </c>
-      <c r="G566" t="s">
+      <c r="H571" t="s">
         <v>760</v>
-      </c>
-      <c r="H566" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="568" spans="1:8">
-      <c r="A568" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="569" spans="1:8">
-      <c r="B569" t="s">
-        <v>763</v>
-      </c>
-      <c r="C569" t="n">
-        <v>3.389</v>
-      </c>
-      <c r="D569" t="s">
-        <v>555</v>
-      </c>
-      <c r="E569" t="s">
-        <v>161</v>
-      </c>
-      <c r="F569" t="s">
-        <v>736</v>
-      </c>
-      <c r="G569" t="s">
-        <v>27</v>
-      </c>
-      <c r="H569" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8">
-      <c r="A571" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="572" spans="1:8">
       <c r="B572" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
       <c r="C572" t="n">
-        <v>3.786</v>
+        <v>3.2515</v>
       </c>
       <c r="D572" t="s">
-        <v>695</v>
+        <v>762</v>
       </c>
       <c r="E572" t="s">
-        <v>696</v>
+        <v>763</v>
       </c>
       <c r="F572" t="s">
-        <v>27</v>
+        <v>764</v>
       </c>
       <c r="G572" t="s">
-        <v>27</v>
+        <v>765</v>
       </c>
       <c r="H572" t="s">
-        <v>27</v>
+        <v>766</v>
       </c>
     </row>
     <row r="574" spans="1:8">
       <c r="A574" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="575" spans="1:8">
       <c r="B575" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="C575" t="n">
-        <v>3.8</v>
+        <v>3.389</v>
       </c>
       <c r="D575" t="s">
-        <v>229</v>
+        <v>555</v>
       </c>
       <c r="E575" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
       <c r="F575" t="s">
-        <v>27</v>
+        <v>741</v>
       </c>
       <c r="G575" t="s">
         <v>27</v>
@@ -9169,21 +9196,21 @@
     </row>
     <row r="577" spans="1:8">
       <c r="A577" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
     </row>
     <row r="578" spans="1:8">
       <c r="B578" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="C578" t="n">
-        <v>4</v>
+        <v>3.786</v>
       </c>
       <c r="D578" t="s">
-        <v>68</v>
+        <v>700</v>
       </c>
       <c r="E578" t="s">
-        <v>27</v>
+        <v>701</v>
       </c>
       <c r="F578" t="s">
         <v>27</v>
@@ -9197,24 +9224,24 @@
     </row>
     <row r="580" spans="1:8">
       <c r="A580" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="581" spans="1:8">
       <c r="B581" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C581" t="n">
-        <v>3.214</v>
+        <v>3.8</v>
       </c>
       <c r="D581" t="s">
-        <v>769</v>
+        <v>229</v>
       </c>
       <c r="E581" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="F581" t="s">
-        <v>696</v>
+        <v>27</v>
       </c>
       <c r="G581" t="s">
         <v>27</v>
@@ -9225,24 +9252,24 @@
     </row>
     <row r="583" spans="1:8">
       <c r="A583" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="584" spans="1:8">
       <c r="B584" t="s">
-        <v>771</v>
+        <v>739</v>
       </c>
       <c r="C584" t="n">
-        <v>3.032</v>
+        <v>4</v>
       </c>
       <c r="D584" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="E584" t="s">
-        <v>772</v>
+        <v>27</v>
       </c>
       <c r="F584" t="s">
-        <v>773</v>
+        <v>27</v>
       </c>
       <c r="G584" t="s">
         <v>27</v>
@@ -9253,24 +9280,24 @@
     </row>
     <row r="586" spans="1:8">
       <c r="A586" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="587" spans="1:8">
       <c r="B587" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
       <c r="C587" t="n">
-        <v>4</v>
+        <v>3.214</v>
       </c>
       <c r="D587" t="s">
-        <v>68</v>
+        <v>774</v>
       </c>
       <c r="E587" t="s">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="F587" t="s">
-        <v>27</v>
+        <v>701</v>
       </c>
       <c r="G587" t="s">
         <v>27</v>
@@ -9289,180 +9316,139 @@
         <v>776</v>
       </c>
       <c r="C590" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="D590" t="s">
+        <v>119</v>
+      </c>
+      <c r="E590" t="s">
+        <v>777</v>
+      </c>
+      <c r="F590" t="s">
+        <v>778</v>
+      </c>
+      <c r="G590" t="s">
+        <v>27</v>
+      </c>
+      <c r="H590" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8">
+      <c r="B593" t="s">
+        <v>755</v>
+      </c>
+      <c r="C593" t="n">
+        <v>4</v>
+      </c>
+      <c r="D593" t="s">
+        <v>68</v>
+      </c>
+      <c r="E593" t="s">
+        <v>27</v>
+      </c>
+      <c r="F593" t="s">
+        <v>27</v>
+      </c>
+      <c r="G593" t="s">
+        <v>27</v>
+      </c>
+      <c r="H593" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8">
+      <c r="B596" t="s">
+        <v>781</v>
+      </c>
+      <c r="C596" t="n">
         <v>3.5537</v>
       </c>
-      <c r="D590" t="s">
-        <v>777</v>
-      </c>
-      <c r="E590" t="s">
-        <v>778</v>
-      </c>
-      <c r="F590" t="s">
-        <v>779</v>
-      </c>
-      <c r="G590" t="s">
-        <v>27</v>
-      </c>
-      <c r="H590" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="591" spans="1:8">
-      <c r="B591" t="s">
-        <v>780</v>
-      </c>
-      <c r="C591" t="n">
-        <v>3.5927</v>
-      </c>
-      <c r="D591" t="s">
-        <v>781</v>
-      </c>
-      <c r="E591" t="s">
+      <c r="D596" t="s">
         <v>782</v>
       </c>
-      <c r="F591" t="s">
+      <c r="E596" t="s">
         <v>783</v>
       </c>
-      <c r="G591" t="s">
-        <v>27</v>
-      </c>
-      <c r="H591" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="593" spans="1:8">
-      <c r="A593" t="s">
+      <c r="F596" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="594" spans="1:8">
-      <c r="B594" t="s">
-        <v>734</v>
-      </c>
-      <c r="C594" t="n">
-        <v>4</v>
-      </c>
-      <c r="D594" t="s">
-        <v>68</v>
-      </c>
-      <c r="E594" t="s">
-        <v>27</v>
-      </c>
-      <c r="F594" t="s">
-        <v>27</v>
-      </c>
-      <c r="G594" t="s">
-        <v>27</v>
-      </c>
-      <c r="H594" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="596" spans="1:8">
-      <c r="A596" t="s">
-        <v>785</v>
+      <c r="G596" t="s">
+        <v>27</v>
+      </c>
+      <c r="H596" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="597" spans="1:8">
       <c r="B597" t="s">
-        <v>732</v>
+        <v>785</v>
       </c>
       <c r="C597" t="n">
+        <v>3.5927</v>
+      </c>
+      <c r="D597" t="s">
+        <v>786</v>
+      </c>
+      <c r="E597" t="s">
+        <v>787</v>
+      </c>
+      <c r="F597" t="s">
+        <v>788</v>
+      </c>
+      <c r="G597" t="s">
+        <v>27</v>
+      </c>
+      <c r="H597" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="A599" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="B600" t="s">
+        <v>739</v>
+      </c>
+      <c r="C600" t="n">
         <v>4</v>
       </c>
-      <c r="D597" t="s">
+      <c r="D600" t="s">
         <v>68</v>
       </c>
-      <c r="E597" t="s">
-        <v>27</v>
-      </c>
-      <c r="F597" t="s">
-        <v>27</v>
-      </c>
-      <c r="G597" t="s">
-        <v>27</v>
-      </c>
-      <c r="H597" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="598" spans="1:8">
-      <c r="B598" t="s">
-        <v>710</v>
-      </c>
-      <c r="C598" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="D598" t="s">
-        <v>641</v>
-      </c>
-      <c r="E598" t="s">
-        <v>27</v>
-      </c>
-      <c r="F598" t="s">
-        <v>119</v>
-      </c>
-      <c r="G598" t="s">
-        <v>27</v>
-      </c>
-      <c r="H598" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="600" spans="1:8">
-      <c r="A600" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="601" spans="1:8">
-      <c r="B601" t="s">
-        <v>768</v>
-      </c>
-      <c r="C601" t="n">
-        <v>3.438</v>
-      </c>
-      <c r="D601" t="s">
-        <v>87</v>
-      </c>
-      <c r="E601" t="s">
-        <v>581</v>
-      </c>
-      <c r="F601" t="s">
-        <v>582</v>
-      </c>
-      <c r="G601" t="s">
-        <v>27</v>
-      </c>
-      <c r="H601" t="s">
+      <c r="E600" t="s">
+        <v>27</v>
+      </c>
+      <c r="F600" t="s">
+        <v>27</v>
+      </c>
+      <c r="G600" t="s">
+        <v>27</v>
+      </c>
+      <c r="H600" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="602" spans="1:8">
-      <c r="B602" t="s">
-        <v>734</v>
-      </c>
-      <c r="C602" t="n">
-        <v>3.657</v>
-      </c>
-      <c r="D602" t="s">
-        <v>338</v>
-      </c>
-      <c r="E602" t="s">
-        <v>196</v>
-      </c>
-      <c r="F602" t="s">
-        <v>319</v>
-      </c>
-      <c r="G602" t="s">
-        <v>27</v>
-      </c>
-      <c r="H602" t="s">
-        <v>27</v>
+      <c r="A602" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="603" spans="1:8">
       <c r="B603" t="s">
-        <v>787</v>
+        <v>737</v>
       </c>
       <c r="C603" t="n">
         <v>4</v>
@@ -9483,51 +9469,92 @@
         <v>27</v>
       </c>
     </row>
-    <row r="605" spans="1:8">
-      <c r="A605" t="s">
-        <v>788</v>
+    <row r="604" spans="1:8">
+      <c r="B604" t="s">
+        <v>715</v>
+      </c>
+      <c r="C604" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D604" t="s">
+        <v>643</v>
+      </c>
+      <c r="E604" t="s">
+        <v>27</v>
+      </c>
+      <c r="F604" t="s">
+        <v>119</v>
+      </c>
+      <c r="G604" t="s">
+        <v>27</v>
+      </c>
+      <c r="H604" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="606" spans="1:8">
-      <c r="B606" t="s">
-        <v>789</v>
-      </c>
-      <c r="C606" t="n">
-        <v>3.375</v>
-      </c>
-      <c r="D606" t="s">
-        <v>688</v>
-      </c>
-      <c r="E606" t="s">
-        <v>790</v>
-      </c>
-      <c r="F606" t="s">
-        <v>27</v>
-      </c>
-      <c r="G606" t="s">
-        <v>27</v>
-      </c>
-      <c r="H606" t="s">
+      <c r="A606" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="B607" t="s">
+        <v>773</v>
+      </c>
+      <c r="C607" t="n">
+        <v>3.438</v>
+      </c>
+      <c r="D607" t="s">
+        <v>87</v>
+      </c>
+      <c r="E607" t="s">
+        <v>583</v>
+      </c>
+      <c r="F607" t="s">
+        <v>584</v>
+      </c>
+      <c r="G607" t="s">
+        <v>27</v>
+      </c>
+      <c r="H607" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="608" spans="1:8">
-      <c r="A608" t="s">
-        <v>791</v>
+      <c r="B608" t="s">
+        <v>739</v>
+      </c>
+      <c r="C608" t="n">
+        <v>3.657</v>
+      </c>
+      <c r="D608" t="s">
+        <v>338</v>
+      </c>
+      <c r="E608" t="s">
+        <v>196</v>
+      </c>
+      <c r="F608" t="s">
+        <v>319</v>
+      </c>
+      <c r="G608" t="s">
+        <v>27</v>
+      </c>
+      <c r="H608" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="609" spans="1:8">
       <c r="B609" t="s">
-        <v>396</v>
+        <v>792</v>
       </c>
       <c r="C609" t="n">
-        <v>3.812</v>
+        <v>4</v>
       </c>
       <c r="D609" t="s">
-        <v>792</v>
+        <v>68</v>
       </c>
       <c r="E609" t="s">
-        <v>793</v>
+        <v>27</v>
       </c>
       <c r="F609" t="s">
         <v>27</v>
@@ -9541,24 +9568,24 @@
     </row>
     <row r="611" spans="1:8">
       <c r="A611" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="612" spans="1:8">
       <c r="B612" t="s">
+        <v>794</v>
+      </c>
+      <c r="C612" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="D612" t="s">
+        <v>693</v>
+      </c>
+      <c r="E612" t="s">
         <v>795</v>
       </c>
-      <c r="C612" t="n">
-        <v>3.5275</v>
-      </c>
-      <c r="D612" t="s">
-        <v>161</v>
-      </c>
-      <c r="E612" t="s">
-        <v>555</v>
-      </c>
       <c r="F612" t="s">
-        <v>736</v>
+        <v>27</v>
       </c>
       <c r="G612" t="s">
         <v>27</v>
@@ -9574,16 +9601,16 @@
     </row>
     <row r="615" spans="1:8">
       <c r="B615" t="s">
-        <v>771</v>
+        <v>396</v>
       </c>
       <c r="C615" t="n">
-        <v>3.778</v>
+        <v>3.812</v>
       </c>
       <c r="D615" t="s">
-        <v>641</v>
+        <v>797</v>
       </c>
       <c r="E615" t="s">
-        <v>119</v>
+        <v>798</v>
       </c>
       <c r="F615" t="s">
         <v>27</v>
@@ -9597,24 +9624,24 @@
     </row>
     <row r="617" spans="1:8">
       <c r="A617" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="618" spans="1:8">
       <c r="B618" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C618" t="n">
-        <v>3.829</v>
+        <v>3.5275</v>
       </c>
       <c r="D618" t="s">
-        <v>464</v>
+        <v>161</v>
       </c>
       <c r="E618" t="s">
-        <v>799</v>
+        <v>555</v>
       </c>
       <c r="F618" t="s">
-        <v>462</v>
+        <v>741</v>
       </c>
       <c r="G618" t="s">
         <v>27</v>
@@ -9625,21 +9652,21 @@
     </row>
     <row r="620" spans="1:8">
       <c r="A620" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="621" spans="1:8">
       <c r="B621" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="C621" t="n">
-        <v>3.943</v>
+        <v>3.778</v>
       </c>
       <c r="D621" t="s">
-        <v>801</v>
+        <v>643</v>
       </c>
       <c r="E621" t="s">
-        <v>802</v>
+        <v>119</v>
       </c>
       <c r="F621" t="s">
         <v>27</v>
@@ -9653,94 +9680,94 @@
     </row>
     <row r="623" spans="1:8">
       <c r="A623" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="624" spans="1:8">
       <c r="B624" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="C624" t="n">
+        <v>3.829</v>
+      </c>
+      <c r="D624" t="s">
+        <v>464</v>
+      </c>
+      <c r="E624" t="s">
+        <v>804</v>
+      </c>
+      <c r="F624" t="s">
+        <v>462</v>
+      </c>
+      <c r="G624" t="s">
+        <v>27</v>
+      </c>
+      <c r="H624" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8">
+      <c r="A626" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8">
+      <c r="B627" t="s">
+        <v>803</v>
+      </c>
+      <c r="C627" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="D627" t="s">
+        <v>806</v>
+      </c>
+      <c r="E627" t="s">
+        <v>807</v>
+      </c>
+      <c r="F627" t="s">
+        <v>27</v>
+      </c>
+      <c r="G627" t="s">
+        <v>27</v>
+      </c>
+      <c r="H627" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8">
+      <c r="A629" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8">
+      <c r="B630" t="s">
+        <v>792</v>
+      </c>
+      <c r="C630" t="n">
         <v>3.517</v>
       </c>
-      <c r="D624" t="s">
+      <c r="D630" t="s">
         <v>109</v>
       </c>
-      <c r="E624" t="s">
+      <c r="E630" t="s">
         <v>125</v>
       </c>
-      <c r="F624" t="s">
-        <v>27</v>
-      </c>
-      <c r="G624" t="s">
-        <v>27</v>
-      </c>
-      <c r="H624" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="625" spans="1:8">
-      <c r="B625" t="s">
-        <v>710</v>
-      </c>
-      <c r="C625" t="n">
-        <v>3.861</v>
-      </c>
-      <c r="D625" t="s">
-        <v>804</v>
-      </c>
-      <c r="E625" t="s">
-        <v>805</v>
-      </c>
-      <c r="F625" t="s">
-        <v>27</v>
-      </c>
-      <c r="G625" t="s">
-        <v>27</v>
-      </c>
-      <c r="H625" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="627" spans="1:8">
-      <c r="A627" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="628" spans="1:8">
-      <c r="B628" t="s">
-        <v>807</v>
-      </c>
-      <c r="C628" t="n">
-        <v>4</v>
-      </c>
-      <c r="D628" t="s">
-        <v>68</v>
-      </c>
-      <c r="E628" t="s">
-        <v>27</v>
-      </c>
-      <c r="F628" t="s">
-        <v>27</v>
-      </c>
-      <c r="G628" t="s">
-        <v>27</v>
-      </c>
-      <c r="H628" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="630" spans="1:8">
-      <c r="A630" t="s">
-        <v>808</v>
+      <c r="F630" t="s">
+        <v>27</v>
+      </c>
+      <c r="G630" t="s">
+        <v>27</v>
+      </c>
+      <c r="H630" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="631" spans="1:8">
       <c r="B631" t="s">
-        <v>434</v>
+        <v>715</v>
       </c>
       <c r="C631" t="n">
-        <v>3.1595</v>
+        <v>3.861</v>
       </c>
       <c r="D631" t="s">
         <v>809</v>
@@ -9749,191 +9776,191 @@
         <v>810</v>
       </c>
       <c r="F631" t="s">
+        <v>27</v>
+      </c>
+      <c r="G631" t="s">
+        <v>27</v>
+      </c>
+      <c r="H631" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8">
+      <c r="A633" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8">
+      <c r="B634" t="s">
+        <v>812</v>
+      </c>
+      <c r="C634" t="n">
+        <v>4</v>
+      </c>
+      <c r="D634" t="s">
+        <v>68</v>
+      </c>
+      <c r="E634" t="s">
+        <v>27</v>
+      </c>
+      <c r="F634" t="s">
+        <v>27</v>
+      </c>
+      <c r="G634" t="s">
+        <v>27</v>
+      </c>
+      <c r="H634" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8">
+      <c r="A636" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8">
+      <c r="B637" t="s">
+        <v>434</v>
+      </c>
+      <c r="C637" t="n">
+        <v>3.1595</v>
+      </c>
+      <c r="D637" t="s">
+        <v>814</v>
+      </c>
+      <c r="E637" t="s">
+        <v>815</v>
+      </c>
+      <c r="F637" t="s">
         <v>106</v>
       </c>
-      <c r="G631" t="s">
-        <v>811</v>
-      </c>
-      <c r="H631" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="632" spans="1:8">
-      <c r="B632" t="s">
+      <c r="G637" t="s">
+        <v>816</v>
+      </c>
+      <c r="H637" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8">
+      <c r="B638" t="s">
         <v>435</v>
       </c>
-      <c r="C632" t="n">
+      <c r="C638" t="n">
         <v>3.386</v>
       </c>
-      <c r="D632" t="s">
-        <v>812</v>
-      </c>
-      <c r="E632" t="s">
-        <v>813</v>
-      </c>
-      <c r="F632" t="s">
+      <c r="D638" t="s">
+        <v>817</v>
+      </c>
+      <c r="E638" t="s">
+        <v>818</v>
+      </c>
+      <c r="F638" t="s">
         <v>222</v>
       </c>
-      <c r="G632" t="s">
-        <v>27</v>
-      </c>
-      <c r="H632" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="634" spans="1:8">
-      <c r="A634" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="635" spans="1:8">
-      <c r="B635" t="s">
-        <v>816</v>
-      </c>
-      <c r="C635" t="n">
+      <c r="G638" t="s">
+        <v>27</v>
+      </c>
+      <c r="H638" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8">
+      <c r="A640" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8">
+      <c r="B641" t="s">
+        <v>821</v>
+      </c>
+      <c r="C641" t="n">
         <v>3.3835</v>
       </c>
-      <c r="D635" t="s">
-        <v>817</v>
-      </c>
-      <c r="E635" t="s">
-        <v>818</v>
-      </c>
-      <c r="F635" t="s">
-        <v>819</v>
-      </c>
-      <c r="G635" t="s">
-        <v>820</v>
-      </c>
-      <c r="H635" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="636" spans="1:8">
-      <c r="B636" t="s">
+      <c r="D641" t="s">
         <v>822</v>
       </c>
-      <c r="C636" t="n">
+      <c r="E641" t="s">
+        <v>823</v>
+      </c>
+      <c r="F641" t="s">
+        <v>824</v>
+      </c>
+      <c r="G641" t="s">
+        <v>825</v>
+      </c>
+      <c r="H641" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8">
+      <c r="B642" t="s">
+        <v>827</v>
+      </c>
+      <c r="C642" t="n">
         <v>3.0553</v>
       </c>
-      <c r="D636" t="s">
-        <v>823</v>
-      </c>
-      <c r="E636" t="s">
+      <c r="D642" t="s">
+        <v>828</v>
+      </c>
+      <c r="E642" t="s">
         <v>195</v>
       </c>
-      <c r="F636" t="s">
+      <c r="F642" t="s">
         <v>86</v>
       </c>
-      <c r="G636" t="s">
+      <c r="G642" t="s">
         <v>517</v>
       </c>
-      <c r="H636" t="s">
+      <c r="H642" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
-      <c r="A638" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="639" spans="1:8">
-      <c r="B639" t="s">
+    <row r="644" spans="1:8">
+      <c r="A644" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8">
+      <c r="B645" t="s">
         <v>223</v>
       </c>
-      <c r="C639" t="n">
+      <c r="C645" t="n">
         <v>3.41</v>
       </c>
-      <c r="D639" t="s">
+      <c r="D645" t="s">
         <v>292</v>
       </c>
-      <c r="E639" t="s">
+      <c r="E645" t="s">
         <v>195</v>
       </c>
-      <c r="F639" t="s">
+      <c r="F645" t="s">
         <v>293</v>
       </c>
-      <c r="G639" t="s">
-        <v>27</v>
-      </c>
-      <c r="H639" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="640" spans="1:8">
-      <c r="B640" t="s">
-        <v>825</v>
-      </c>
-      <c r="C640" t="n">
-        <v>3.296</v>
-      </c>
-      <c r="D640" t="s">
-        <v>826</v>
-      </c>
-      <c r="E640" t="s">
-        <v>827</v>
-      </c>
-      <c r="F640" t="s">
-        <v>323</v>
-      </c>
-      <c r="G640" t="s">
-        <v>451</v>
-      </c>
-      <c r="H640" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="642" spans="1:8">
-      <c r="A642" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="643" spans="1:8">
-      <c r="B643" t="s">
-        <v>223</v>
-      </c>
-      <c r="C643" t="n">
-        <v>3.3005</v>
-      </c>
-      <c r="D643" t="s">
-        <v>330</v>
-      </c>
-      <c r="E643" t="s">
-        <v>829</v>
-      </c>
-      <c r="F643" t="s">
-        <v>830</v>
-      </c>
-      <c r="G643" t="s">
-        <v>831</v>
-      </c>
-      <c r="H643" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="645" spans="1:8">
-      <c r="A645" t="s">
-        <v>832</v>
+      <c r="G645" t="s">
+        <v>27</v>
+      </c>
+      <c r="H645" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="646" spans="1:8">
       <c r="B646" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C646" t="n">
-        <v>3.1395</v>
+        <v>3.296</v>
       </c>
       <c r="D646" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E646" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="F646" t="s">
-        <v>836</v>
+        <v>323</v>
       </c>
       <c r="G646" t="s">
-        <v>27</v>
+        <v>451</v>
       </c>
       <c r="H646" t="s">
         <v>27</v>
@@ -9941,27 +9968,27 @@
     </row>
     <row r="648" spans="1:8">
       <c r="A648" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="649" spans="1:8">
       <c r="B649" t="s">
-        <v>838</v>
+        <v>223</v>
       </c>
       <c r="C649" t="n">
-        <v>3.2395</v>
+        <v>3.3005</v>
       </c>
       <c r="D649" t="s">
-        <v>839</v>
+        <v>330</v>
       </c>
       <c r="E649" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F649" t="s">
-        <v>167</v>
+        <v>835</v>
       </c>
       <c r="G649" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H649" t="s">
         <v>27</v>
@@ -9969,261 +9996,261 @@
     </row>
     <row r="651" spans="1:8">
       <c r="A651" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="652" spans="1:8">
       <c r="B652" t="s">
+        <v>838</v>
+      </c>
+      <c r="C652" t="n">
+        <v>3.1395</v>
+      </c>
+      <c r="D652" t="s">
+        <v>839</v>
+      </c>
+      <c r="E652" t="s">
+        <v>840</v>
+      </c>
+      <c r="F652" t="s">
+        <v>841</v>
+      </c>
+      <c r="G652" t="s">
+        <v>27</v>
+      </c>
+      <c r="H652" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8">
+      <c r="A654" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8">
+      <c r="B655" t="s">
         <v>843</v>
       </c>
-      <c r="C652" t="n">
+      <c r="C655" t="n">
+        <v>3.2395</v>
+      </c>
+      <c r="D655" t="s">
+        <v>844</v>
+      </c>
+      <c r="E655" t="s">
+        <v>845</v>
+      </c>
+      <c r="F655" t="s">
+        <v>167</v>
+      </c>
+      <c r="G655" t="s">
+        <v>846</v>
+      </c>
+      <c r="H655" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8">
+      <c r="A657" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8">
+      <c r="B658" t="s">
+        <v>848</v>
+      </c>
+      <c r="C658" t="n">
+        <v>3.307</v>
+      </c>
+      <c r="D658" t="s">
+        <v>849</v>
+      </c>
+      <c r="E658" t="s">
+        <v>850</v>
+      </c>
+      <c r="F658" t="s">
+        <v>58</v>
+      </c>
+      <c r="G658" t="s">
+        <v>27</v>
+      </c>
+      <c r="H658" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8">
+      <c r="A660" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8">
+      <c r="B661" t="s">
+        <v>852</v>
+      </c>
+      <c r="C661" t="n">
         <v>3.1215</v>
       </c>
-      <c r="D652" t="s">
-        <v>844</v>
-      </c>
-      <c r="E652" t="s">
-        <v>845</v>
-      </c>
-      <c r="F652" t="s">
-        <v>846</v>
-      </c>
-      <c r="G652" t="s">
+      <c r="D661" t="s">
+        <v>853</v>
+      </c>
+      <c r="E661" t="s">
+        <v>854</v>
+      </c>
+      <c r="F661" t="s">
+        <v>855</v>
+      </c>
+      <c r="G661" t="s">
         <v>413</v>
       </c>
-      <c r="H652" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="653" spans="1:8">
-      <c r="B653" t="s">
-        <v>847</v>
-      </c>
-      <c r="C653" t="n">
+      <c r="H661" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8">
+      <c r="B662" t="s">
+        <v>856</v>
+      </c>
+      <c r="C662" t="n">
         <v>3.281</v>
       </c>
-      <c r="D653" t="s">
-        <v>581</v>
-      </c>
-      <c r="E653" t="s">
-        <v>848</v>
-      </c>
-      <c r="F653" t="s">
+      <c r="D662" t="s">
+        <v>583</v>
+      </c>
+      <c r="E662" t="s">
+        <v>857</v>
+      </c>
+      <c r="F662" t="s">
         <v>56</v>
       </c>
-      <c r="G653" t="s">
-        <v>27</v>
-      </c>
-      <c r="H653" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="654" spans="1:8">
-      <c r="B654" t="s">
-        <v>849</v>
-      </c>
-      <c r="C654" t="n">
-        <v>3.625</v>
-      </c>
-      <c r="D654" t="s">
-        <v>359</v>
-      </c>
-      <c r="E654" t="s">
-        <v>195</v>
-      </c>
-      <c r="F654" t="s">
-        <v>518</v>
-      </c>
-      <c r="G654" t="s">
-        <v>27</v>
-      </c>
-      <c r="H654" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="656" spans="1:8">
-      <c r="A656" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="657" spans="1:8">
-      <c r="B657" t="s">
-        <v>482</v>
-      </c>
-      <c r="C657" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="D657" t="s">
-        <v>406</v>
-      </c>
-      <c r="E657" t="s">
-        <v>407</v>
-      </c>
-      <c r="F657" t="s">
-        <v>27</v>
-      </c>
-      <c r="G657" t="s">
-        <v>27</v>
-      </c>
-      <c r="H657" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="659" spans="1:8">
-      <c r="A659" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="660" spans="1:8">
-      <c r="B660" t="s">
-        <v>434</v>
-      </c>
-      <c r="C660" t="n">
-        <v>3.7312</v>
-      </c>
-      <c r="D660" t="s">
-        <v>852</v>
-      </c>
-      <c r="E660" t="s">
-        <v>853</v>
-      </c>
-      <c r="F660" t="s">
-        <v>854</v>
-      </c>
-      <c r="G660" t="s">
-        <v>27</v>
-      </c>
-      <c r="H660" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="662" spans="1:8">
-      <c r="A662" t="s">
-        <v>855</v>
+      <c r="G662" t="s">
+        <v>27</v>
+      </c>
+      <c r="H662" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="663" spans="1:8">
       <c r="B663" t="s">
+        <v>858</v>
+      </c>
+      <c r="C663" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="D663" t="s">
+        <v>359</v>
+      </c>
+      <c r="E663" t="s">
+        <v>195</v>
+      </c>
+      <c r="F663" t="s">
+        <v>518</v>
+      </c>
+      <c r="G663" t="s">
+        <v>27</v>
+      </c>
+      <c r="H663" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8">
+      <c r="A665" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8">
+      <c r="B666" t="s">
+        <v>482</v>
+      </c>
+      <c r="C666" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D666" t="s">
+        <v>406</v>
+      </c>
+      <c r="E666" t="s">
+        <v>407</v>
+      </c>
+      <c r="F666" t="s">
+        <v>27</v>
+      </c>
+      <c r="G666" t="s">
+        <v>27</v>
+      </c>
+      <c r="H666" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8">
+      <c r="A668" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8">
+      <c r="B669" t="s">
+        <v>434</v>
+      </c>
+      <c r="C669" t="n">
+        <v>3.7312</v>
+      </c>
+      <c r="D669" t="s">
+        <v>861</v>
+      </c>
+      <c r="E669" t="s">
+        <v>862</v>
+      </c>
+      <c r="F669" t="s">
+        <v>863</v>
+      </c>
+      <c r="G669" t="s">
+        <v>27</v>
+      </c>
+      <c r="H669" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8">
+      <c r="A671" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8">
+      <c r="B672" t="s">
         <v>496</v>
       </c>
-      <c r="C663" t="n">
+      <c r="C672" t="n">
         <v>3.237</v>
       </c>
-      <c r="D663" t="s">
-        <v>856</v>
-      </c>
-      <c r="E663" t="s">
-        <v>857</v>
-      </c>
-      <c r="F663" t="s">
-        <v>27</v>
-      </c>
-      <c r="G663" t="s">
-        <v>27</v>
-      </c>
-      <c r="H663" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="664" spans="1:8">
-      <c r="B664" t="s">
-        <v>858</v>
-      </c>
-      <c r="C664" t="n">
-        <v>3.404</v>
-      </c>
-      <c r="D664" t="s">
-        <v>859</v>
-      </c>
-      <c r="E664" t="s">
-        <v>859</v>
-      </c>
-      <c r="F664" t="s">
-        <v>860</v>
-      </c>
-      <c r="G664" t="s">
-        <v>27</v>
-      </c>
-      <c r="H664" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="666" spans="1:8">
-      <c r="A666" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="667" spans="1:8">
-      <c r="B667" t="s">
-        <v>431</v>
-      </c>
-      <c r="C667" t="n">
-        <v>3.209</v>
-      </c>
-      <c r="D667" t="s">
-        <v>862</v>
-      </c>
-      <c r="E667" t="s">
-        <v>863</v>
-      </c>
-      <c r="F667" t="s">
-        <v>864</v>
-      </c>
-      <c r="G667" t="s">
+      <c r="D672" t="s">
         <v>865</v>
       </c>
-      <c r="H667" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="669" spans="1:8">
-      <c r="A669" t="s">
+      <c r="E672" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="670" spans="1:8">
-      <c r="B670" t="s">
-        <v>833</v>
-      </c>
-      <c r="C670" t="n">
-        <v>3.833</v>
-      </c>
-      <c r="D670" t="s">
-        <v>367</v>
-      </c>
-      <c r="E670" t="s">
-        <v>196</v>
-      </c>
-      <c r="F670" t="s">
-        <v>27</v>
-      </c>
-      <c r="G670" t="s">
-        <v>27</v>
-      </c>
-      <c r="H670" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="672" spans="1:8">
-      <c r="A672" t="s">
-        <v>867</v>
+      <c r="F672" t="s">
+        <v>27</v>
+      </c>
+      <c r="G672" t="s">
+        <v>27</v>
+      </c>
+      <c r="H672" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="673" spans="1:8">
       <c r="B673" t="s">
+        <v>867</v>
+      </c>
+      <c r="C673" t="n">
+        <v>3.404</v>
+      </c>
+      <c r="D673" t="s">
         <v>868</v>
       </c>
-      <c r="C673" t="n">
-        <v>3.867</v>
-      </c>
-      <c r="D673" t="s">
-        <v>467</v>
-      </c>
       <c r="E673" t="s">
-        <v>468</v>
+        <v>868</v>
       </c>
       <c r="F673" t="s">
-        <v>27</v>
+        <v>869</v>
       </c>
       <c r="G673" t="s">
         <v>27</v>
@@ -10234,29 +10261,113 @@
     </row>
     <row r="675" spans="1:8">
       <c r="A675" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="676" spans="1:8">
       <c r="B676" t="s">
-        <v>571</v>
+        <v>431</v>
       </c>
       <c r="C676" t="n">
+        <v>3.209</v>
+      </c>
+      <c r="D676" t="s">
+        <v>871</v>
+      </c>
+      <c r="E676" t="s">
+        <v>872</v>
+      </c>
+      <c r="F676" t="s">
+        <v>873</v>
+      </c>
+      <c r="G676" t="s">
+        <v>874</v>
+      </c>
+      <c r="H676" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8">
+      <c r="A678" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8">
+      <c r="B679" t="s">
+        <v>838</v>
+      </c>
+      <c r="C679" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="D679" t="s">
+        <v>367</v>
+      </c>
+      <c r="E679" t="s">
+        <v>196</v>
+      </c>
+      <c r="F679" t="s">
+        <v>27</v>
+      </c>
+      <c r="G679" t="s">
+        <v>27</v>
+      </c>
+      <c r="H679" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8">
+      <c r="A681" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8">
+      <c r="B682" t="s">
+        <v>877</v>
+      </c>
+      <c r="C682" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="D682" t="s">
+        <v>467</v>
+      </c>
+      <c r="E682" t="s">
+        <v>468</v>
+      </c>
+      <c r="F682" t="s">
+        <v>27</v>
+      </c>
+      <c r="G682" t="s">
+        <v>27</v>
+      </c>
+      <c r="H682" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8">
+      <c r="A684" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8">
+      <c r="B685" t="s">
+        <v>573</v>
+      </c>
+      <c r="C685" t="n">
         <v>3.6</v>
       </c>
-      <c r="D676" t="s">
-        <v>705</v>
-      </c>
-      <c r="E676" t="s">
+      <c r="D685" t="s">
+        <v>710</v>
+      </c>
+      <c r="E685" t="s">
         <v>400</v>
       </c>
-      <c r="F676" t="s">
-        <v>27</v>
-      </c>
-      <c r="G676" t="s">
-        <v>27</v>
-      </c>
-      <c r="H676" t="s">
+      <c r="F685" t="s">
+        <v>27</v>
+      </c>
+      <c r="G685" t="s">
+        <v>27</v>
+      </c>
+      <c r="H685" t="s">
         <v>27</v>
       </c>
     </row>
